--- a/ET2/ET2_v3.xlsx
+++ b/ET2/ET2_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morea\Desktop\Análisis Numérico I\ET2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C98BFE-4CD2-4577-A845-FFA089330AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9078F6E9-31A9-41DF-BF5D-DF082C756265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>BISECCIÓN</t>
   </si>
@@ -432,12 +432,21 @@
   <si>
     <t>cómo método de arranque</t>
   </si>
+  <si>
+    <t xml:space="preserve">λ = </t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +487,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -499,11 +514,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,6 +538,1963 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bisección</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$3:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$3:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>223500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>260250000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>241875000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>251062500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>246468750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>244171875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>243023437.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>243597656.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>243310546.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>243166992.1875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>243238769.53125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>243274658.203125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>243292602.5390625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>243283630.37109375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>243288116.45507813</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>243285873.41308594</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>243286994.93408203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>243287555.69458008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>243287836.0748291</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>243287976.26495361</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>243287906.16989136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>243287871.12236023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>243287853.59859467</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>243287862.36047745</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>243287857.97953606</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>243287855.78906536</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>243287856.88430071</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>243287857.43191838</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.0">
+                  <c:v>243287857.70572722</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5252-44E2-9453-1672A852AEAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Regula Falsi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$37:$A$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$37:$F$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>168456969.31628188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>182801073.04769003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>194085533.07965511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>203053106.38045478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210240276.55017653</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>216042172.69862774</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220754646.76968479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224602393.47416025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>227758211.48052773</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230356470.18843994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>232502692.41217053</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>234280479.6747134</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>235756587.26938939</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>236984691.14976117</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>238008217.07635355</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>238862489.02476013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>239576377.58087826</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>240173576.97019967</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>240673603.33752832</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>241092581.66902262</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>241443870.89745182</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>241738563.97093728</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>241985890.45604038</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>242193542.5378727</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>242367940.34918299</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>242514448.90356123</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>242637556.17165822</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>242741019.77375492</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>242827988.189062</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>242901101.17396912</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>242962573.14568666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>243014262.55702525</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>243057729.71306872</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>243094285.02471098</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>243125029.33025903</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>243150887.62413532</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>243172637.2956934</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>243190931.78949779</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>243206320.44204715</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>243219265.12180355</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>243230154.19403958</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>243239314.24509963</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>243247019.92876574</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>243253502.23778236</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>243258955.45402977</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>243263542.98956728</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>243267402.29635149</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>243270648.9936963</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>243273380.33851546</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>243275678.14328358</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>243277611.22981286</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>243279237.49283078</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>243280605.63551024</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>243281756.62917361</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>243282724.94105867</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>243283539.56703621</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>243284224.9002907</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>243284801.46203825</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>243285286.51620531</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>243285694.58650467</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>243286037.89141297</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>243286326.71008968</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>243286569.69020438</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>243286774.10689735</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>243286946.08063224</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>243287090.76046774</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>243287212.47823814</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>243287314.87826106</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>243287401.02645743</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>243287473.50215164</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>243287534.47530106</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>243287585.77146798</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>243287628.92647934</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>243287665.232411</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>243287695.77627385</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>243287721.47255987</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>243287743.09062254</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>243287761.2777119</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>243287776.57835346</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>243287789.45065171</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>243287800.28000578</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>243287809.39064863</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>243287817.05535454</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>243287823.50360614</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>243287828.92846519</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>243287833.49235284</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>243287837.33191267</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>243287840.56210163</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>243287843.27963212</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>243287845.56586742</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>243287847.48925772</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>243287849.10738963</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>243287850.46871024</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>243287851.61397773</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>243287852.57748154</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>243287853.38806909</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>243287854.07000953</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>243287854.64372021</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>243287855.12637815</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="0.0">
+                  <c:v>243287855.53243417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5252-44E2-9453-1672A852AEAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Newton-Raphson</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$143:$A$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$143:$C$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>247469945.6317524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>243499754.05478975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243288390.09615329</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,#00">
+                  <c:v>243287857.68823773</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,#00">
+                  <c:v>243287857.68488035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5252-44E2-9453-1672A852AEAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Secante</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$153:$A$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$153:$F$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>243589697.19739544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>243299337.98340011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243287898.76209483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243287857.69046596</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,#00">
+                  <c:v>243287857.68488035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5252-44E2-9453-1672A852AEAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="577168640"/>
+        <c:axId val="577166016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="577168640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577166016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="577166016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Uk</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577168640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1">
+          <a:alpha val="98000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -531,8 +2505,8 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2076450" cy="1100138"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -760,7 +2734,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -875,8 +2849,8 @@
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1952625" cy="640816"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -1035,7 +3009,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -1100,8 +3074,8 @@
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4514850" cy="581698"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -1446,7 +3420,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -1503,6 +3477,44 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15DE16C-5007-4B6D-90AA-CF9AE83C6456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1549,7 +3561,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1601,7 +3613,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1803,10 +3815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L157"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="I150" sqref="I150"/>
+    <sheetView tabSelected="1" topLeftCell="H15" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,7 +3883,7 @@
         <v>42239329471.868904</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F31" si="0">(B3+C3)/2</f>
+        <f t="shared" ref="F3:F30" si="0">(B3+C3)/2</f>
         <v>223500000</v>
       </c>
       <c r="G3">
@@ -2345,8 +4357,15 @@
         <f t="shared" si="1"/>
         <v>8972.16796875</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16">
+        <f>H4/H3^1</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2378,8 +4397,12 @@
         <f t="shared" si="1"/>
         <v>4486.083984375</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f>H31/H30</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2412,7 +4435,7 @@
         <v>2243.0419921875</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2445,7 +4468,7 @@
         <v>1121.52099609375</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2478,7 +4501,7 @@
         <v>560.760498046875</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2511,7 +4534,7 @@
         <v>280.3802490234375</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2544,7 +4567,7 @@
         <v>140.19012451171875</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2577,7 +4600,7 @@
         <v>70.095062255859375</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2610,7 +4633,7 @@
         <v>35.047531127929688</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2643,7 +4666,7 @@
         <v>17.523765563964844</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2676,7 +4699,7 @@
         <v>8.7618827819824219</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2709,7 +4732,7 @@
         <v>4.3809413909912109</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -2742,7 +4765,7 @@
         <v>2.1904706954956055</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -2775,7 +4798,7 @@
         <v>1.0952353477478027</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2808,7 +4831,7 @@
         <v>0.54761767387390137</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2828,8 +4851,8 @@
         <f>E30</f>
         <v>36.775583267211914</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
+      <c r="F31" s="4">
+        <f>(B31+C31)/2</f>
         <v>243287857.70572722</v>
       </c>
       <c r="G31">
@@ -2841,12 +4864,12 @@
         <v>0.27380883693695068</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2871,8 +4894,11 @@
       <c r="H36" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2900,8 +4926,12 @@
         <f>($K$4+F37*$K$5)/SQRT(1-F37^2/$K$3^2)-$K$6</f>
         <v>-5305525539.1553144</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <f>H136/H135</f>
+        <v>0.84129148970445955</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2934,7 +4964,7 @@
         <v>14344103.731408149</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2967,7 +4997,7 @@
         <v>11284460.031965077</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3000,7 +5030,7 @@
         <v>8967573.3007996678</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3033,7 +5063,7 @@
         <v>7187170.1697217524</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -3066,7 +5096,7 @@
         <v>5801896.1484512091</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -3099,7 +5129,7 @@
         <v>4712474.0710570514</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -3132,7 +5162,7 @@
         <v>3847746.7044754624</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -3165,7 +5195,7 @@
         <v>3155818.0063674748</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -3198,7 +5228,7 @@
         <v>2598258.7079122066</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -3231,7 +5261,7 @@
         <v>2146222.2237305939</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -6155,7 +8185,7 @@
         <f t="shared" si="43"/>
         <v>42239329471.868904</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="4">
         <f t="shared" si="44"/>
         <v>243287855.53243417</v>
       </c>
@@ -6186,6 +8216,9 @@
       <c r="D142" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F142" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -6202,6 +8235,10 @@
         <f>ABS(C143-B143)</f>
         <v>23969945.631752402</v>
       </c>
+      <c r="G143">
+        <f>D147/D146^2</f>
+        <v>1.1844359288820673E-8</v>
+      </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
@@ -6245,7 +8282,7 @@
         <f t="shared" si="48"/>
         <v>243288390.09615329</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="4">
         <f t="shared" si="46"/>
         <v>243287857.68823773</v>
       </c>
@@ -6262,7 +8299,7 @@
         <f t="shared" si="48"/>
         <v>243287857.68823773</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="4">
         <f t="shared" si="46"/>
         <v>243287857.68488035</v>
       </c>
@@ -6354,7 +8391,7 @@
         <v>37807456.116371155</v>
       </c>
       <c r="F154">
-        <f t="shared" ref="F154:F157" si="51">C154-E154*(C154-B154)/(E154-D154)</f>
+        <f t="shared" ref="F154:F156" si="51">C154-E154*(C154-B154)/(E154-D154)</f>
         <v>243299337.98340011</v>
       </c>
       <c r="G154">
@@ -6367,7 +8404,7 @@
         <v>2</v>
       </c>
       <c r="B155">
-        <f t="shared" ref="B155:B157" si="52">C154</f>
+        <f t="shared" ref="B155:B156" si="52">C154</f>
         <v>243589697.19739544</v>
       </c>
       <c r="C155">
@@ -6425,7 +8462,7 @@
         <v>4</v>
       </c>
       <c r="B157">
-        <f t="shared" si="52"/>
+        <f>C156</f>
         <v>243287898.76209483</v>
       </c>
       <c r="C157">
@@ -6440,8 +8477,8 @@
         <f t="shared" si="50"/>
         <v>0.69713401794433594</v>
       </c>
-      <c r="F157">
-        <f t="shared" si="51"/>
+      <c r="F157" s="4">
+        <f>C157-E157*(C157-B157)/(E157-D157)</f>
         <v>243287857.68488035</v>
       </c>
       <c r="G157">
@@ -6449,9 +8486,19 @@
         <v>5.5856108665466309E-3</v>
       </c>
     </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I158" t="s">
+        <v>27</v>
+      </c>
+      <c r="J158">
+        <f>G157/G156^1.58</f>
+        <v>1.5764290588060786E-5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/ET2/ET2_v3.xlsx
+++ b/ET2/ET2_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morea\Desktop\Análisis Numérico I\ET2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9078F6E9-31A9-41DF-BF5D-DF082C756265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA33811-4A5F-493F-983E-B62B236F4120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,16 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$A$143:$A$147</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$A$153:$A$157</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$A$37:$A$136</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$A$3:$A$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Hoja1!$C$143:$C$147</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Hoja1!$F$153:$F$157</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Hoja1!$F$37:$F$136</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Hoja1!$F$3:$F$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1939,6 +1949,1373 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bisección</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$H$4:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>36750000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18375000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9187500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4593750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2296875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1148437.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>574218.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>287109.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>143554.6875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71777.34375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35888.671875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17944.3359375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8972.16796875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4486.083984375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2243.0419921875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1121.52099609375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>560.760498046875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>280.3802490234375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140.19012451171875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70.095062255859375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.047531127929688</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.523765563964844</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.7618827819824219</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3809413909912109</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1904706954956055</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0952353477478027</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.54761767387390137</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27380883693695068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$H$3:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>73500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36750000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18375000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9187500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4593750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2296875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1148437.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>574218.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>287109.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>143554.6875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71777.34375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35888.671875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17944.3359375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8972.16796875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4486.083984375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2243.0419921875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1121.52099609375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>560.760498046875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280.3802490234375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>140.19012451171875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70.095062255859375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.047531127929688</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.523765563964844</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.7618827819824219</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3809413909912109</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1904706954956055</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0952353477478027</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54761767387390137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAE4-4A56-880E-314B5135DA3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Regula Falsi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$H$39:$H$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>11284460.031965077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8967573.3007996678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7187170.1697217524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5801896.1484512091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4712474.0710570514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3847746.7044754624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3155818.0063674748</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2598258.7079122066</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2146222.2237305939</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1777787.2625428736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1476107.594675988</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1228103.8803717792</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1023525.9265923798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>854271.94840657711</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>713888.55611813068</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>597199.38932141662</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>500026.3673286438</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>418978.33149430156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>351289.22842919827</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>294693.07348546386</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>247326.48510310054</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>207652.0818323195</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>174397.81131029129</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>146508.5543782413</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>123107.26809698343</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>103463.60209670663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>86968.415307074785</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>73112.984907120466</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61471.971717536449</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51689.411338597536</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43467.156043469906</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36555.311642259359</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30744.305548042059</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25858.293876290321</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21749.671558082104</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18294.493804395199</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15388.652549356222</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12944.679756402969</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10889.072236031294</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9160.0510600507259</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7705.6836661100388</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6482.3090166151524</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5453.2162474095821</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4587.5355375111103</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3859.3067842125893</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3246.6973448097706</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2731.3448191583157</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2297.8047681152821</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1933.0865292847157</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1626.2630179226398</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1368.1426794528961</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1150.9936633706093</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>968.31188505887985</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>814.62597754597664</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>685.3332544863224</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>576.56174755096436</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>485.05416706204414</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>408.07029935717583</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>343.30490830540657</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>288.81867671012878</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>242.98011469841003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>204.41669297218323</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>171.97373488545418</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>144.67983549833298</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>121.71777039766312</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>102.40002292394638</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>86.148196369409561</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72.475694209337234</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>60.973149418830872</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>51.296166926622391</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43.155011355876923</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36.305931657552719</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>30.543862849473953</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25.696286022663116</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>21.618062674999237</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18.18708935379982</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.300641566514969</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12.872298240661621</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10.829354077577591</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.1106428503990173</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.664705902338028</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.4482516050338745</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.4248590469360352</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.5638876557350159</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.8395598232746124</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.2301889657974243</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.7175304889678955</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.2862353026866913</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9233902990818024</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6181319057941437</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.3613206148147583</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.1452674865722656</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.96350380778312683</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.8105875551700592</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.68194043636322021</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.57371068000793457</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.48265793919563293</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.40605601668357849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$H$38:$H$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>14344103.731408149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11284460.031965077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8967573.3007996678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7187170.1697217524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5801896.1484512091</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4712474.0710570514</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3847746.7044754624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3155818.0063674748</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2598258.7079122066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2146222.2237305939</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1777787.2625428736</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1476107.594675988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1228103.8803717792</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1023525.9265923798</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>854271.94840657711</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>713888.55611813068</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>597199.38932141662</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500026.3673286438</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>418978.33149430156</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>351289.22842919827</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>294693.07348546386</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>247326.48510310054</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>207652.0818323195</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>174397.81131029129</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>146508.5543782413</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>123107.26809698343</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>103463.60209670663</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>86968.415307074785</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>73112.984907120466</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61471.971717536449</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>51689.411338597536</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43467.156043469906</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36555.311642259359</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30744.305548042059</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25858.293876290321</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21749.671558082104</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18294.493804395199</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15388.652549356222</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12944.679756402969</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10889.072236031294</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9160.0510600507259</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7705.6836661100388</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6482.3090166151524</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5453.2162474095821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4587.5355375111103</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3859.3067842125893</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3246.6973448097706</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2731.3448191583157</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2297.8047681152821</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1933.0865292847157</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1626.2630179226398</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1368.1426794528961</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1150.9936633706093</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>968.31188505887985</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>814.62597754597664</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>685.3332544863224</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>576.56174755096436</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>485.05416706204414</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>408.07029935717583</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>343.30490830540657</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>288.81867671012878</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>242.98011469841003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>204.41669297218323</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>171.97373488545418</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>144.67983549833298</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>121.71777039766312</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>102.40002292394638</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>86.148196369409561</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>72.475694209337234</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>60.973149418830872</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>51.296166926622391</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43.155011355876923</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36.305931657552719</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30.543862849473953</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25.696286022663116</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>21.618062674999237</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>18.18708935379982</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.300641566514969</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12.872298240661621</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10.829354077577591</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.1106428503990173</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.664705902338028</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.4482516050338745</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.4248590469360352</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.5638876557350159</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.8395598232746124</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.2301889657974243</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.7175304889678955</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2862353026866913</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.9233902990818024</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.6181319057941437</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.3613206148147583</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1452674865722656</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.96350380778312683</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.8105875551700592</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.68194043636322021</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.57371068000793457</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.48265793919563293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CAE4-4A56-880E-314B5135DA3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Newton-Raphson</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$144:$D$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3970191.5769626498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211363.95863646269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>532.40791556239128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3573806285858154E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$143:$D$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23969945.631752402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3970191.5769626498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>211363.95863646269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>532.40791556239128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CAE4-4A56-880E-314B5135DA3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Secante</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$155:$G$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11439.221305280924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.071628868579865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5856108665466309E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$154:$G$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>290359.21399533749</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11439.221305280924</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.071628868579865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CAE4-4A56-880E-314B5135DA3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="505150752"/>
+        <c:axId val="505153048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="505150752"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>error k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="505153048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="505153048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>error k+1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="505150752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1979,7 +3356,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3486,7 +5419,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
@@ -3510,6 +5443,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08BA09B-5E6B-4D57-8012-49D160814B98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3817,8 +5786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H15" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="G38" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ET2/ET2_v3.xlsx
+++ b/ET2/ET2_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morea\Desktop\Análisis Numérico I\ET2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA33811-4A5F-493F-983E-B62B236F4120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8796E225-AA77-4830-ABEF-A8F3A00EBDD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
             <c:v>Bisección</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -584,8 +584,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -594,6 +594,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -804,7 +805,7 @@
             <c:v>Regula Falsi</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -813,8 +814,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -823,6 +824,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1459,7 +1461,7 @@
             <c:v>Newton-Raphson</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1468,8 +1470,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1478,6 +1480,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1544,7 +1547,7 @@
             <c:v>Secante</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1553,16 +1556,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1637,6 +1639,7 @@
         <c:axId val="577168640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1661,7 +1664,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1674,7 +1677,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-AR"/>
+                  <a:rPr lang="es-AR" sz="1200"/>
                   <a:t>k</a:t>
                 </a:r>
               </a:p>
@@ -1693,7 +1696,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1718,8 +1721,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1731,7 +1734,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1754,6 +1757,8 @@
         <c:axId val="577166016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="270000000"/>
+          <c:min val="160000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1778,7 +1783,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1791,12 +1796,24 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-AR"/>
-                  <a:t>Uk</a:t>
+                  <a:rPr lang="es-AR" sz="1200"/>
+                  <a:t>u</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" sz="1200" baseline="-25000"/>
+                  <a:t>k</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2089808373137452E-2"/>
+              <c:y val="0.36419011469306822"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1810,7 +1827,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1834,9 +1851,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1919,12 +1936,13 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1">
-          <a:alpha val="98000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1976,7 +1994,7 @@
             <c:v>Bisección</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1985,8 +2003,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1995,6 +2013,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2199,7 +2218,7 @@
             <c:v>Regula Falsi</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -2208,8 +2227,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2218,6 +2237,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2842,7 +2862,7 @@
             <c:v>Newton-Raphson</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -2851,8 +2871,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -2861,6 +2881,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2921,7 +2942,7 @@
             <c:v>Secante</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -2930,16 +2951,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3005,7 +3025,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3027,7 +3047,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3040,8 +3060,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-AR"/>
-                  <a:t>error k</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error k</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3059,7 +3079,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3076,7 +3096,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3084,8 +3104,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3097,7 +3117,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3119,7 +3139,8 @@
       <c:valAx>
         <c:axId val="505153048"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:logBase val="10"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3144,7 +3165,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3176,7 +3197,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3193,16 +3214,16 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3210,7 +3231,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3285,7 +3306,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3397,7 +3418,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3408,7 +3429,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3424,25 +3445,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -3454,7 +3475,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3462,11 +3483,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3498,35 +3519,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3538,22 +3569,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3583,15 +3618,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3601,7 +3634,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3610,14 +3643,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3626,17 +3658,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3645,10 +3676,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -3664,21 +3695,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3697,17 +3722,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3716,17 +3740,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3735,17 +3758,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3766,7 +3788,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3774,7 +3796,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3787,6 +3809,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3794,10 +3827,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3818,7 +3851,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3827,14 +3860,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3848,27 +3880,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3885,9 +3916,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3900,20 +3931,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3924,7 +3949,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3940,25 +3965,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -3970,7 +3995,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3978,11 +4003,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4014,35 +4039,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4054,22 +4089,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4099,15 +4138,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4117,7 +4154,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4126,14 +4163,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4142,17 +4178,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4161,10 +4196,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -4180,21 +4215,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4213,17 +4242,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4232,17 +4260,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4251,17 +4278,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4282,7 +4308,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -4290,7 +4316,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4303,6 +4329,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4310,10 +4347,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -4334,7 +4371,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4343,14 +4380,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4364,27 +4400,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4401,9 +4436,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4416,14 +4451,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5414,8 +5443,8 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -5786,7 +5815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G38" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H38" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H30"/>
     </sheetView>
   </sheetViews>
